--- a/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2022_top_box_office.xlsx
+++ b/2. Data Understanding/2.1 Collect Initial Data/Box Office Mojo Domestic Box Office by Year/Domestic Box Office By Year/2022_top_box_office.xlsx
@@ -453,43 +453,43 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>$718,318,561</t>
+          <t>$718,732,821</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Black Panther: Wakanda Forever</t>
+          <t>Avatar: The Way of Water</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>$436,499,646</t>
+          <t>$684,075,767</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Doctor Strange in the Multiverse of Madness</t>
+          <t>Black Panther: Wakanda Forever</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$411,331,607</t>
+          <t>$453,829,060</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Avatar: The Way of Water</t>
+          <t>Doctor Strange in the Multiverse of Madness</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>$401,007,908</t>
+          <t>$411,331,607</t>
         </is>
       </c>
     </row>
@@ -544,24 +544,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Spider-Man: No Way Home</t>
+          <t>Sonic the Hedgehog 2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>$231,808,708</t>
+          <t>$190,872,904</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sonic the Hedgehog 2</t>
+          <t>Puss in Boots: The Last Wish</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>$190,872,904</t>
+          <t>$185,535,345</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>$168,054,237</t>
+          <t>$168,152,111</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>$148,649,929</t>
+          <t>$148,648,820</t>
         </is>
       </c>
     </row>
@@ -724,24 +724,24 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sing 2</t>
+          <t>Scream</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>$86,307,835</t>
+          <t>$81,641,405</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scream</t>
+          <t>Everything Everywhere All at Once</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>$81,641,405</t>
+          <t>$77,191,785</t>
         </is>
       </c>
     </row>
@@ -760,36 +760,36 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Everything Everywhere All at Once</t>
+          <t>Ticket to Paradise</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>$68,649,964</t>
+          <t>$68,275,985</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ticket to Paradise</t>
+          <t>The Woman King</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>$68,205,760</t>
+          <t>$67,328,130</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>The Woman King</t>
+          <t>A Man Called Otto</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>$67,178,268</t>
+          <t>$64,267,657</t>
         </is>
       </c>
     </row>
@@ -832,84 +832,84 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Puss in Boots: The Last Wish</t>
+          <t>Violent Night</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>$55,665,155</t>
+          <t>$50,057,405</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Violent Night</t>
+          <t>Lyle, Lyle, Crocodile</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>$46,778,450</t>
+          <t>$46,888,441</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lyle, Lyle, Crocodile</t>
+          <t>Death on the Nile</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>$46,703,141</t>
+          <t>$45,630,104</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Death on the Nile</t>
+          <t>Don't Worry Darling</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>$45,630,104</t>
+          <t>$45,309,403</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Don't Worry Darling</t>
+          <t>Downton Abbey: A New Era</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>$45,309,403</t>
+          <t>$44,141,550</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Downton Abbey: A New Era</t>
+          <t>Barbarian</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>$44,141,550</t>
+          <t>$40,842,944</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Barbarian</t>
+          <t>The Menu</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>$40,842,944</t>
+          <t>$38,501,125</t>
         </is>
       </c>
     </row>
@@ -933,91 +933,91 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>$36,848,924</t>
+          <t>$37,968,963</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The Menu</t>
+          <t>Jujutsu Kaisen 0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>$35,721,551</t>
+          <t>$34,542,754</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jujutsu Kaisen 0</t>
+          <t>The Northman</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>$34,542,754</t>
+          <t>$34,233,110</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>The Northman</t>
+          <t>The Bob's Burgers Movie</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>$34,233,110</t>
+          <t>$31,933,830</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The Bob's Burgers Movie</t>
+          <t>Beast</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>$31,933,830</t>
+          <t>$31,846,530</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Beast</t>
+          <t>The Invitation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>$31,846,530</t>
+          <t>$25,100,080</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The Invitation</t>
+          <t>Avatar2022  Re-release</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>$25,100,080</t>
+          <t>$24,714,024</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Avatar2022  Re-release</t>
+          <t>Whitney Houston: I Wanna Dance with Somebody</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>$24,714,024</t>
+          <t>$23,708,080</t>
         </is>
       </c>
     </row>
@@ -1048,24 +1048,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The King's Man</t>
+          <t>Father Stu</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>$20,917,649</t>
+          <t>$20,884,796</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Father Stu</t>
+          <t>Devotion</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>$20,884,796</t>
+          <t>$20,511,938</t>
         </is>
       </c>
     </row>
@@ -1084,1764 +1084,1764 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Devotion</t>
+          <t>Prey for the Devil</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>$19,837,942</t>
+          <t>$19,802,293</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Prey for the Devil</t>
+          <t>Moonfall</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>$19,802,293</t>
+          <t>$19,060,660</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Moonfall</t>
+          <t>Paws of Fury: The Legend of Hank</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>$19,060,660</t>
+          <t>$17,811,382</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Paws of Fury: The Legend of Hank</t>
+          <t>The Whale</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>$17,811,382</t>
+          <t>$17,463,630</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>The Fabelmans</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>$14,947,969</t>
+          <t>$17,348,945</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>The Chosen Season 3: Episode 1 &amp; 2</t>
+          <t>Babylon</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>$14,612,089</t>
+          <t>$15,351,455</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>The 355</t>
+          <t>Amsterdam</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>$14,570,455</t>
+          <t>$14,947,969</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>American Underdog</t>
+          <t>The Chosen Season 3: Episode 1 &amp; 2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>$14,301,214</t>
+          <t>$14,612,089</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Glass Onion</t>
+          <t>The 355</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>$13,280,000</t>
+          <t>$14,570,455</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Whitney Houston: I Wanna Dance with Somebody</t>
+          <t>RRR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>$13,256,913</t>
+          <t>$14,500,000</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Easter Sunday</t>
+          <t>Glass Onion</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>$13,013,690</t>
+          <t>$13,280,000</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>One Piece Film: Red</t>
+          <t>Easter Sunday</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>$12,775,324</t>
+          <t>$13,013,690</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Licorice Pizza</t>
+          <t>One Piece Film: Red</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>$11,873,858</t>
+          <t>$12,775,324</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>The Fabelmans</t>
+          <t>X</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>$11,807,395</t>
+          <t>$11,765,309</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>Bros</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>$11,765,309</t>
+          <t>$11,628,165</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Bros</t>
+          <t>Bodies Bodies Bodies</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>$11,628,165</t>
+          <t>$11,446,602</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bodies Bodies Bodies</t>
+          <t>Terrifier 2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>$11,446,602</t>
+          <t>$10,640,105</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RRR</t>
+          <t>The Banshees of Inisherin</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>$11,113,000</t>
+          <t>$10,582,266</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Terrifier 2</t>
+          <t>Mrs. Harris Goes to Paris</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>$10,640,105</t>
+          <t>$10,433,915</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Mrs. Harris Goes to Paris</t>
+          <t>Firestarter</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>$10,433,915</t>
+          <t>$9,739,250</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>West Side Story</t>
+          <t>Blacklight</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>$10,361,074</t>
+          <t>$9,591,094</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Firestarter</t>
+          <t>See How They Run</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>$9,739,250</t>
+          <t>$9,586,237</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Blacklight</t>
+          <t>Pearl</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>$9,591,094</t>
+          <t>$9,423,445</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>See How They Run</t>
+          <t>Spider-Man: No Way Home2022 Re-release</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>$9,586,237</t>
+          <t>$9,321,593</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>The Matrix Resurrections</t>
+          <t>Redeeming Love</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>$9,552,171</t>
+          <t>$9,214,020</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Pearl</t>
+          <t>Till</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>$9,423,445</t>
+          <t>$9,000,202</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Spider-Man: No Way Home2022 Re-release</t>
+          <t>Three Thousand Years of Longing</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>$9,321,593</t>
+          <t>$8,286,741</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Redeeming Love</t>
+          <t>Brahmastra Part One: Shiva</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>$9,214,020</t>
+          <t>$7,839,108</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Babylon</t>
+          <t>Bones and All</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>$9,082,897</t>
+          <t>$7,834,907</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>The Banshees of Inisherin</t>
+          <t>Men</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>$9,026,965</t>
+          <t>$7,587,853</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Till</t>
+          <t>Memory</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>$9,000,202</t>
+          <t>$7,329,043</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Three Thousand Years of Longing</t>
+          <t>Fall</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>$8,286,741</t>
+          <t>$7,240,521</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Brahmastra Part One: Shiva</t>
+          <t>BTS Permission to Dance on Stage - Seoul: Live Viewing</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>$7,839,108</t>
+          <t>$6,840,000</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bones and All</t>
+          <t>Tár</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>$7,834,907</t>
+          <t>$6,773,650</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Memory</t>
+          <t>Marcel the Shell with Shoes On</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>$7,329,043</t>
+          <t>$6,333,702</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Fall</t>
+          <t>She Said</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>$7,240,521</t>
+          <t>$5,825,995</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Men</t>
+          <t>I Heard the Bells</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>$7,018,995</t>
+          <t>$5,644,104</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ghostbusters: Afterlife</t>
+          <t>Women Talking</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>$6,981,615</t>
+          <t>$5,456,531</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BTS Permission to Dance on Stage - Seoul: Live Viewing</t>
+          <t>Orphan: First Kill</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>$6,840,000</t>
+          <t>$5,413,227</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Marcel the Shell with Shoes On</t>
+          <t>Lifemark</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>$6,333,702</t>
+          <t>$5,180,537</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>She Said</t>
+          <t>Jaws2022 Re-release</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>$5,825,995</t>
+          <t>$5,100,765</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Tár</t>
+          <t>The Legend of Maula Jatt</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>$5,579,775</t>
+          <t>$5,016,493</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>I Heard the Bells</t>
+          <t>Clerks III</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>$5,563,323</t>
+          <t>$4,663,106</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Encanto</t>
+          <t>Triangle of Sadness</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>$5,465,293</t>
+          <t>$4,608,096</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Orphan: First Kill</t>
+          <t>The Cursed</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>$5,413,227</t>
+          <t>$4,588,389</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>House of Gucci</t>
+          <t>Vengeance</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>$5,392,076</t>
+          <t>$4,330,720</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Whale</t>
+          <t>Ponniyin Selvan: Part I</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>$5,334,196</t>
+          <t>$4,282,000</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Lifemark</t>
+          <t>Moonage Daydream</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>$5,180,537</t>
+          <t>$4,218,925</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jaws2022 Re-release</t>
+          <t>Belle</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>$5,100,765</t>
+          <t>$4,018,313</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>The Cursed</t>
+          <t>Family Camp</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>$4,588,389</t>
+          <t>$3,973,263</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Nightmare Alley</t>
+          <t>Cyrano</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>$4,459,805</t>
+          <t>$3,873,124</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Vengeance</t>
+          <t>Laal Singh Chaddha</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>$4,330,720</t>
+          <t>$3,401,324</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ponniyin Selvan: Part I</t>
+          <t>The Outfit</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>$4,282,000</t>
+          <t>$3,344,040</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Moonage Daydream</t>
+          <t>Living</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>$4,210,870</t>
+          <t>$3,038,113</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Triangle of Sadness</t>
+          <t>The Worst Person in the World</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>$4,117,418</t>
+          <t>$3,034,775</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Belle</t>
+          <t>K.G.F: Chapter 2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>$4,018,313</t>
+          <t>$2,874,000</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Family Camp</t>
+          <t>Breaking</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>$3,973,263</t>
+          <t>$2,806,359</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cyrano</t>
+          <t>Honk for Jesus. Save Your Soul.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>$3,873,124</t>
+          <t>$2,561,270</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Laal Singh Chaddha</t>
+          <t>Mack &amp; Rita</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>$3,401,324</t>
+          <t>$2,540,965</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>The Outfit</t>
+          <t>Studio 666</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>$3,344,040</t>
+          <t>$2,513,963</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Clerks III</t>
+          <t>Crimes of the Future</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>$3,118,952</t>
+          <t>$2,452,882</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>The Worst Person in the World</t>
+          <t>Gigi &amp; Nate</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>$3,034,775</t>
+          <t>$2,280,814</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>K.G.F: Chapter 2</t>
+          <t>The Good House</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>$2,874,000</t>
+          <t>$2,219,760</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Breaking</t>
+          <t>Decision to Leave</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>$2,806,359</t>
+          <t>$2,179,864</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A Journal for Jordan</t>
+          <t>Emily the Criminal</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>$2,639,255</t>
+          <t>$2,156,296</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Honk for Jesus. Save Your Soul.</t>
+          <t>Umma</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>$2,561,270</t>
+          <t>$2,121,025</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Mack &amp; Rita</t>
+          <t>The Wolf and the Lion</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>$2,540,965</t>
+          <t>$2,072,173</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Studio 666</t>
+          <t>Jeepers Creepers: Reborn</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>$2,513,963</t>
+          <t>$2,033,057</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Crimes of the Future</t>
+          <t>E.T. the Extra-Terrestrial2022 Re-release</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>$2,452,882</t>
+          <t>$2,030,725</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Belfast</t>
+          <t>Watcher</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>$2,364,945</t>
+          <t>$1,961,207</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Gigi &amp; Nate</t>
+          <t>Mr. Malcolm's List</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>$2,280,814</t>
+          <t>$1,885,718</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>The Good House</t>
+          <t>Armageddon Time</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>$2,219,760</t>
+          <t>$1,860,050</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Parallel Mothers</t>
+          <t>Radhe Shyam</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>$2,200,702</t>
+          <t>$1,860,000</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Emily the Criminal</t>
+          <t>2022 Oscar Nominated Short Films: Live Action/2022 Oscar Nominated Short Films: Animation/2022 Oscar Nominated Short Films: Documentary2022 Oscar Nominated Short Films</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>$2,170,275</t>
+          <t>$1,801,646</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Umma</t>
+          <t>Vikram</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>$2,121,025</t>
+          <t>$1,770,000</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>The Wolf and the Lion</t>
+          <t>The King's Daughter</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>$2,072,173</t>
+          <t>$1,758,963</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>E.T. the Extra-Terrestrial2022 Re-release</t>
+          <t>Aftersun</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>$2,030,725</t>
+          <t>$1,658,790</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Drive My Car</t>
+          <t>Infinite Storm</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>$2,019,670</t>
+          <t>$1,600,543</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Jeepers Creepers: Reborn</t>
+          <t>Vikram Vedha</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>$2,013,935</t>
+          <t>$1,589,362</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Watcher</t>
+          <t>The Duke</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>$1,961,207</t>
+          <t>$1,526,970</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mr. Malcolm's List</t>
+          <t>Running the Bases</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>$1,885,718</t>
+          <t>$1,511,980</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Armageddon Time</t>
+          <t>¿Y cómo es él?</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>$1,860,050</t>
+          <t>$1,500,636</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Radhe Shyam</t>
+          <t>The Kashmir Files</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>$1,860,000</t>
+          <t>$1,485,000</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Vikram</t>
+          <t>2000 Mules</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>$1,770,000</t>
+          <t>$1,465,513</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>The King's Daughter</t>
+          <t>It's a Wonderful Life75th Anniversary</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>$1,758,961</t>
+          <t>$1,439,643</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2022 Oscar Nominated Short Films: Live Action/2022 Oscar Nominated Short Films: Animation/2022 Oscar Nominated Short Films: Documentary2022 Oscar Nominated Short Films</t>
+          <t>The Godfather2022  Re-release</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>$1,645,735</t>
+          <t>$1,414,662</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Infinite Storm</t>
+          <t>Spoiler Alert</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>$1,600,543</t>
+          <t>$1,384,003</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Vikram Vedha</t>
+          <t>Medieval</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>$1,589,362</t>
+          <t>$1,374,325</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>The Duke</t>
+          <t>Rogue One: A Star Wars Story2022 Re-release</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>$1,526,970</t>
+          <t>$1,362,667</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Running the Bases</t>
+          <t>Howl's Moving Castle2022 Re-release</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>$1,511,980</t>
+          <t>$1,212,525</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>¿Y cómo es él?</t>
+          <t>F3: Fun and Frustration</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>$1,500,636</t>
+          <t>$1,195,000</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>The Kashmir Files</t>
+          <t>Empire of Light</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>$1,485,000</t>
+          <t>$1,177,577</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2000 Mules</t>
+          <t>Fire of Love</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>$1,465,513</t>
+          <t>$1,120,412</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>It's a Wonderful Life75th Anniversary</t>
+          <t>After Ever Happy</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>$1,439,250</t>
+          <t>$1,072,750</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>The Godfather2022  Re-release</t>
+          <t>EO</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>$1,414,662</t>
+          <t>$1,068,782</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Spoiler Alert</t>
+          <t>Hallelujah: Leonard Cohen, a Journey, a Song</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>$1,384,003</t>
+          <t>$1,062,603</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Medieval</t>
+          <t>Broker</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>$1,374,325</t>
+          <t>$1,046,899</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Rogue One: A Star Wars Story2022 Re-release</t>
+          <t>The Contractor</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>$1,362,667</t>
+          <t>$1,035,265</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Decision to Leave</t>
+          <t>Jug Jugg Jeeyo</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>$1,353,860</t>
+          <t>$1,033,000</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Howl's Moving Castle2022 Re-release</t>
+          <t>Coldplay Music of The Spheres Live Broadcast from Buenos Aires</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>$1,212,525</t>
+          <t>$1,015,000</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>F3: Fun and Frustration</t>
+          <t>The Beatles: Get Back - The Rooftop Concert</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>$1,195,000</t>
+          <t>$976,712</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Dune</t>
+          <t>Man of God</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>$1,151,687</t>
+          <t>$920,561</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Aftersun</t>
+          <t>Hansan: Rising Dragon</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>$1,119,759</t>
+          <t>$865,888</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>After Ever Happy</t>
+          <t>Johnny Cash: The Redemption of an American Icon</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>$1,072,750</t>
+          <t>$840,580</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Fire of Love</t>
+          <t>The Tiger Rising</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>$1,064,079</t>
+          <t>$835,162</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Hallelujah: Leonard Cohen, a Journey, a Song</t>
+          <t>Acharya</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>$1,062,353</t>
+          <t>$832,000</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>The Contractor</t>
+          <t>Petite Maman</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>$1,035,265</t>
+          <t>$829,065</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Jug Jugg Jeeyo</t>
+          <t>The Roundup</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>$1,033,000</t>
+          <t>$812,859</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>'83</t>
+          <t>Evangelion: 3.0+1.01 Thrice Upon a Time</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>$1,030,739</t>
+          <t>$810,744</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Coldplay Music of The Spheres Live Broadcast from Buenos Aires</t>
+          <t>Star Trek II: The Wrath of Khan2022 Re-release</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>$1,015,000</t>
+          <t>$794,943</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>The Beatles: Get Back - The Rooftop Concert</t>
+          <t>The Metropolitan Opera HD Live: Kevin Puts: The Hours, Libretto by Greg Pierce</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>$976,712</t>
+          <t>$791,374</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Venom: Let There Be Carnage</t>
+          <t>The Phantom of the Open</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>$941,330</t>
+          <t>$748,695</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Man of God</t>
+          <t>Corsage</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>$920,561</t>
+          <t>$705,767</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Empire of Light</t>
+          <t>Saint Michael Meet the Angel</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>$916,603</t>
+          <t>$643,828</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Johnny Cash: The Redemption of an American Icon</t>
+          <t>Back to the Drive-in</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>$840,580</t>
+          <t>$626,557</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>The Tiger Rising</t>
+          <t>Ante Sundharaniki</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>$835,162</t>
+          <t>$620,000</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Hansan: Rising Dragon</t>
+          <t>Unsilenced</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>$834,704</t>
+          <t>$613,621</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Acharya</t>
+          <t>The Mean One</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>$832,000</t>
+          <t>$612,260</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Petite Maman</t>
+          <t>HIT: The 2nd Case</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>$829,065</t>
+          <t>$600,000</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Evangelion: 3.0+1.01 Thrice Upon a Time</t>
+          <t>Official Competition</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>$810,744</t>
+          <t>$593,790</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>The Roundup</t>
+          <t>Gangubai Kathiawadi</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>$801,281</t>
+          <t>$592,000</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Star Trek II: The Wrath of Khan2022 Re-release</t>
+          <t>Cuando sea joven</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>$794,943</t>
+          <t>$588,028</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>The Metropolitan Opera HD Live: Kevin Puts: The Hours, Libretto by Greg Pierce</t>
+          <t>Confess, Fletch</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>$791,374</t>
+          <t>$538,842</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>The Phantom of the Open</t>
+          <t>Call Jane</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>$747,675</t>
+          <t>$512,770</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Saint Michael Meet the Angel</t>
+          <t>The Quintessential Quintuplets Movie</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>$643,828</t>
+          <t>$502,000</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ante Sundharaniki</t>
+          <t>All the Beauty and the Bloodshed</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>$621,000</t>
+          <t>$500,082</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Unsilenced</t>
+          <t>God's Country</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>$613,621</t>
+          <t>$493,679</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>HIT: The 2nd Case</t>
+          <t>Deep in the Heart: A Texas Wildlife Story</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>$600,000</t>
+          <t>$480,240</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Official Competition</t>
+          <t>The Railway Children Return</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>$593,790</t>
+          <t>$466,391</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gangubai Kathiawadi</t>
+          <t>Vivo</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>$592,000</t>
+          <t>$454,807</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Cuando sea joven</t>
+          <t>Eiffel</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>$588,028</t>
+          <t>$444,814</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>The Mean One</t>
+          <t>Selena2022  Re-release</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>$585,025</t>
+          <t>$444,681</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Confess, Fletch</t>
+          <t>Brian and Charles</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>$538,842</t>
+          <t>$430,635</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Call Jane</t>
+          <t>Emergency Declaration</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>$512,770</t>
+          <t>$412,196</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>The Quintessential Quintuplets Movie</t>
+          <t>RRR2022 Re-release</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>$502,000</t>
+          <t>$399,485</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>God's Country</t>
+          <t>Superspreader</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>$493,679</t>
+          <t>$399,370</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Deep in the Heart: A Texas Wildlife Story</t>
+          <t>Tyson's Run</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>$480,240</t>
+          <t>$391,426</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>The Railway Children Return</t>
+          <t>The Inspection</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>$466,391</t>
+          <t>$390,429</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Vivo</t>
+          <t>Alice</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>$454,807</t>
+          <t>$373,043</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Selena2022  Re-release</t>
+          <t>The Good Boss</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>$444,681</t>
+          <t>$363,130</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Eiffel</t>
+          <t>Inu-oh</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>$436,023</t>
+          <t>$351,558</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Brian and Charles</t>
+          <t>The Forgiven</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>$430,635</t>
+          <t>$340,222</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>King Richard</t>
+          <t>Turn Every Page: The Adventures of Robert Caro and Robert Gottlieb</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>$408,056</t>
+          <t>$335,417</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Superspreader</t>
+          <t>Fourth of July</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>$399,370</t>
+          <t>$325,070</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>The Inspection</t>
+          <t>Mad God</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>$385,627</t>
+          <t>$325,042</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Alice</t>
+          <t>Clean</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>$372,529</t>
+          <t>$318,877</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Emergency Declaration</t>
+          <t>Waterman</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>$372,123</t>
+          <t>$316,848</t>
         </is>
       </c>
     </row>
